--- a/inst/extdata/starter_kit/source_meta.xlsx
+++ b/inst/extdata/starter_kit/source_meta.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,30 +360,35 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>dataset</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>column</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>label</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>is_key</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
@@ -392,25 +397,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>dm_raw</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>usubjid</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Unique Subject Identifier</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -419,25 +429,30 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>dm_raw</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>subjid</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Subject Identifier within Site</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -446,25 +461,30 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>dm_raw</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>siteid</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Study Site Identifier</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -473,30 +493,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>dm_raw</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>rfstdtc</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Subject Reference Start Date/Time</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>ISO 8601 full date</t>
         </is>
@@ -505,30 +530,35 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>dm_raw</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>rfendtc</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Subject Reference End Date/Time</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>ISO 8601 full date</t>
         </is>
@@ -537,30 +567,35 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>dm_raw</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>brthdtc</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Date/Time of Birth</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>ISO 8601 date</t>
         </is>
@@ -569,30 +604,35 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>dm_raw</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>age</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>years</t>
         </is>
@@ -601,30 +641,35 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>dm_raw</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>sex</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Sex</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>M or F</t>
         </is>
@@ -633,30 +678,35 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>dm_raw</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>race</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Race</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>free text</t>
         </is>
@@ -665,25 +715,30 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>dm_raw</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>armcd</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Planned Arm Code</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -692,25 +747,30 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>dm_raw</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>arm</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Description of Planned Arm</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -719,25 +779,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>ae_raw</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>usubjid</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Unique Subject Identifier</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -746,30 +811,35 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>ae_raw</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>aeid</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Sponsor-defined AE identifier</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>for traceability</t>
         </is>
@@ -778,30 +848,35 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>ae_raw</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>aeterm</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Reported AE term</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>free text</t>
         </is>
@@ -810,30 +885,35 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>ae_raw</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>aedecod</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Dictionary-coded AE term</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>pre-coded</t>
         </is>
@@ -842,30 +922,35 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>ae_raw</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>aesev_raw</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Severity raw value</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>values: mild/moderate/severe (mixed case)</t>
         </is>
@@ -874,30 +959,35 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>ae_raw</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>aeser_raw</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Serious event raw</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>values: y/n</t>
         </is>
@@ -906,30 +996,35 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>ae_raw</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>aerel_raw</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Causality raw value</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>values: related/not related/possibly related</t>
         </is>
@@ -938,30 +1033,35 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>ae_raw</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>aestdat</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Start date raw</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>format YYYY-MM-DD or partial YYYY-MM</t>
         </is>
@@ -970,30 +1070,35 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>ae_raw</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>aestim</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Start time raw</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>format HH:MM; ~40% missing</t>
         </is>
@@ -1002,30 +1107,35 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>ae_raw</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>aeendat</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>End date raw</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>format YYYY-MM-DD; some missing (ongoing)</t>
         </is>
@@ -1034,30 +1144,35 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>ae_raw</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>aeentim</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>End time raw</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>format HH:MM; mostly missing</t>
         </is>
@@ -1066,30 +1181,35 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>ae_raw</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>aebodsys</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Body system or organ class</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>e.g. NERVOUS SYSTEM DISORDERS</t>
         </is>
@@ -1098,30 +1218,35 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>ae_raw</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>aession</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>AE Assessment Session</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>e.g. VISIT 1/VISIT 2/UNSCHEDULED</t>
         </is>
@@ -1130,30 +1255,35 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>ae_raw</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>aetrtem</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>AE term in local language</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>free text</t>
         </is>
@@ -1162,25 +1292,30 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>cm_raw</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>usubjid</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Unique Subject Identifier</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1189,25 +1324,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>cm_raw</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>cmid</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Sponsor-defined CM identifier</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1216,30 +1356,35 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>cm_raw</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>cmtrt</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Medication name</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>free text</t>
         </is>
@@ -1248,30 +1393,35 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>cm_raw</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>cmdecod</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Standardized medication name</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>pre-coded</t>
         </is>
@@ -1280,30 +1430,35 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>cm_raw</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>cmroute_raw</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Route of administration raw</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>values: oral/iv/topical</t>
         </is>
@@ -1312,25 +1467,30 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>cm_raw</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>cmdose</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Dose amount</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1339,30 +1499,35 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>cm_raw</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>cmdosu_raw</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Dose unit raw</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>values: mg/ml/g</t>
         </is>
@@ -1371,30 +1536,35 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>cm_raw</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>cmdosfrq_raw</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Dosing frequency raw</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>values: qd/bid/tid/prn</t>
         </is>
@@ -1403,30 +1573,35 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>cm_raw</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>cmstdat</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Start date raw</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>YYYY-MM-DD</t>
         </is>
@@ -1435,30 +1610,35 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>cm_raw</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>cmendat</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>End date raw</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>YYYY-MM-DD; missing for ongoing</t>
         </is>
@@ -1467,25 +1647,30 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>mh_raw</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>usubjid</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Unique Subject Identifier</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1494,25 +1679,30 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>mh_raw</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>mhid</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>Sponsor-defined MH identifier</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1521,30 +1711,35 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>mh_raw</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>mhterm</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Medical history term</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>free text</t>
         </is>
@@ -1553,30 +1748,35 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>mh_raw</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>mhdecod</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>Dictionary-coded MH term</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>pre-coded</t>
         </is>
@@ -1585,25 +1785,30 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>mh_raw</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>mhcat</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>Category (e.g. General or Surgical)</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1612,30 +1817,35 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>mh_raw</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>mhstdat</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Start date raw</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>YYYY-MM-DD, YYYY-MM, or YYYY (partial)</t>
         </is>
@@ -1644,30 +1854,35 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>mh_raw</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>mhendat</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>End date raw</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>YYYY-MM-DD or missing; ~50% ongoing</t>
         </is>
@@ -1676,25 +1891,30 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>pr_raw</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>usubjid</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Unique Subject Identifier</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1703,25 +1923,30 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>pr_raw</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>prid</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Sponsor-defined PR identifier</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1730,30 +1955,35 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>pr_raw</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>prtrt</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>Procedure name</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>free text</t>
         </is>
@@ -1762,30 +1992,35 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>pr_raw</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>prcat</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>Procedure category</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>e.g. Diagnostic/Surgical/Monitoring</t>
         </is>
@@ -1794,30 +2029,35 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>pr_raw</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>prpresp_raw</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>Pre-specified flag raw</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>values: y/n</t>
         </is>
@@ -1826,30 +2066,35 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>pr_raw</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>prstdat</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>Start date raw</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>YYYY-MM-DD</t>
         </is>
@@ -1858,30 +2103,35 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>pr_raw</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>prstim</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>Start time raw</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>HH:MM; ~60% present</t>
         </is>
@@ -1890,30 +2140,35 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>pr_raw</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>prendat</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>End date raw</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>YYYY-MM-DD; ~70% present</t>
         </is>
@@ -1922,30 +2177,35 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>dm_raw</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>ageu_raw</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>Age unit raw</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>values: YEARS</t>
         </is>
@@ -1954,25 +2214,30 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
           <t>ex_raw</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>usubjid</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>Unique Subject Identifier</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1981,30 +2246,35 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>ex_raw</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>exid</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>Sponsor-defined EX identifier</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>for traceability</t>
         </is>
@@ -2013,30 +2283,35 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>ex_raw</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>extrt</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>Treatment name</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>matches arm assignment</t>
         </is>
@@ -2045,25 +2320,30 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>ex_raw</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>exdose</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>Dose amount</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2072,30 +2352,35 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>ex_raw</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>exdosu_raw</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>Dose unit raw</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>values: mg/ml</t>
         </is>
@@ -2104,30 +2389,35 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
           <t>ex_raw</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>exdosfrq_raw</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>Dosing frequency raw</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>values: qd/bid</t>
         </is>
@@ -2136,30 +2426,35 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
           <t>ex_raw</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>exroute_raw</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>Route raw</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>values: oral/iv/subcutaneous</t>
         </is>
@@ -2168,30 +2463,35 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
           <t>ex_raw</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>exstdat</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>Start date raw</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>YYYY-MM-DD</t>
         </is>
@@ -2200,30 +2500,35 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
           <t>ex_raw</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>exendat</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>End date raw</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>YYYY-MM-DD</t>
         </is>
@@ -2232,25 +2537,30 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>vs_raw</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>usubjid</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>Unique Subject Identifier</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2259,25 +2569,30 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
           <t>vs_raw</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>vsid</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>Sponsor-defined VS identifier</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2286,30 +2601,35 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
           <t>vs_raw</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>vstestcd</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>Vital signs test code</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>e.g. SYSBP/DIABP/HR/TEMP/WEIGHT</t>
         </is>
@@ -2318,30 +2638,35 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
           <t>vs_raw</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>vstest</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>Vital signs test name</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F65" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>full name</t>
         </is>
@@ -2350,30 +2675,35 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
           <t>vs_raw</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>vsorres</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>Result value</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>numeric as character</t>
         </is>
@@ -2382,30 +2712,35 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
           <t>vs_raw</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>vsorresu</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>Original units</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>e.g. mmHg/beats/min/C/kg</t>
         </is>
@@ -2414,30 +2749,35 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
           <t>vs_raw</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>vsdat</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t>Assessment date</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>YYYY-MM-DD</t>
         </is>
@@ -2446,30 +2786,35 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
           <t>vs_raw</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>vstim</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>Assessment time</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F69" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>HH:MM; ~80% present</t>
         </is>
@@ -2478,30 +2823,35 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
           <t>vs_raw</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>visit</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>Visit name</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>from visit schedule</t>
         </is>
@@ -2510,30 +2860,35 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
           <t>vs_raw</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>visitnum</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>Visit number</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>from visit schedule</t>
         </is>
@@ -2542,30 +2897,35 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
           <t>vs_raw</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>vsblfl</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>Baseline flag</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>Y or blank</t>
         </is>
@@ -2574,25 +2934,30 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
           <t>lb_raw</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>usubjid</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t>Unique Subject Identifier</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2601,25 +2966,30 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
           <t>lb_raw</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>lbid</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
           <t>Sponsor-defined LB identifier</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2628,30 +2998,35 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
           <t>lb_raw</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>lbtestcd</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t>Lab test code</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>e.g. ALT/AST/GLUC/WBC/HGB</t>
         </is>
@@ -2660,30 +3035,35 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
           <t>lb_raw</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>lbtest</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
           <t>Lab test name</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F76" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>full name</t>
         </is>
@@ -2692,30 +3072,35 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
           <t>lb_raw</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>lborres</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
           <t>Result value</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F77" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>numeric as character</t>
         </is>
@@ -2724,30 +3109,35 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
           <t>lb_raw</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>lborresu</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t>Original units</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F78" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>e.g. U/L/mg/dL/10^9/L</t>
         </is>
@@ -2756,30 +3146,35 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
           <t>lb_raw</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>lbdat</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
           <t>Specimen collection date</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F79" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>YYYY-MM-DD</t>
         </is>
@@ -2788,30 +3183,35 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
           <t>lb_raw</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>lbtim</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D80" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>Specimen collection time</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F80" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>HH:MM; ~70% present</t>
         </is>
@@ -2820,30 +3220,35 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
           <t>lb_raw</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>visit</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
           <t>Visit name</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F81" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>from visit schedule</t>
         </is>
@@ -2852,30 +3257,35 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
           <t>lb_raw</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>visitnum</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>Visit number</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F82" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>from visit schedule</t>
         </is>
@@ -2884,25 +3294,30 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
           <t>ds_raw</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>usubjid</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>Unique Subject Identifier</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2911,25 +3326,30 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
           <t>ds_raw</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>dsid</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>Sponsor-defined DS identifier</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2938,30 +3358,35 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
           <t>ds_raw</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>dsterm</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>Reported disposition term</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F85" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>free text</t>
         </is>
@@ -2970,30 +3395,35 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
           <t>ds_raw</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>dsdecod_raw</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
           <t>Pre-coded disposition term</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>may duplicate dsterm</t>
         </is>
@@ -3002,25 +3432,30 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
           <t>ds_raw</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>dscat_raw</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D87" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
           <t>Raw category for disposition</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -3029,25 +3464,30 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
           <t>ds_raw</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>dsscat_raw</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D88" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
           <t>Raw subcategory for disposition</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -3056,30 +3496,35 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
           <t>ds_raw</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>dsstdat</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>Disposition event date raw</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F89" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
         <is>
           <t>YYYY-MM-DD</t>
         </is>
@@ -3088,25 +3533,30 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
           <t>qs_raw</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>usubjid</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>Unique Subject Identifier</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3115,25 +3565,30 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
           <t>qs_raw</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>qsid</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
           <t>Sponsor-defined QS identifier</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -3142,30 +3597,35 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
           <t>qs_raw</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>qstestcd</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
           <t>Questionnaire test code</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F92" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>e.g. FUNC01/FUNC02/FUNC03</t>
         </is>
@@ -3174,30 +3634,35 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
           <t>qs_raw</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>qstest</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
           <t>Questionnaire test name</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F93" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
         <is>
           <t>full name</t>
         </is>
@@ -3206,30 +3671,35 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
           <t>qs_raw</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>qscat</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
           <t>Questionnaire category</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F94" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
         <is>
           <t>e.g. FUNCTIONAL ASSESSMENT</t>
         </is>
@@ -3238,30 +3708,35 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
           <t>qs_raw</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>qsorres</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D95" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
           <t>Result value</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F95" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>numeric as character; NA if not done</t>
         </is>
@@ -3270,30 +3745,35 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
           <t>qs_raw</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>qsorresu</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D96" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
           <t>Original units</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F96" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
         <is>
           <t>e.g. SCORE</t>
         </is>
@@ -3302,30 +3782,35 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
           <t>qs_raw</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>qsdat</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D97" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
           <t>Assessment date</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F97" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
         <is>
           <t>YYYY-MM-DD</t>
         </is>
@@ -3334,30 +3819,35 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
           <t>qs_raw</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>qstim</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D98" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
           <t>Assessment time</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F98" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
         <is>
           <t>HH:MM; ~70% present</t>
         </is>
@@ -3366,30 +3856,35 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
           <t>qs_raw</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>visit</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
       <c r="D99" t="inlineStr">
         <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
           <t>Visit name</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F99" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
         <is>
           <t>from visit schedule</t>
         </is>
@@ -3398,30 +3893,35 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
           <t>qs_raw</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>visitnum</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>Visit number</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="F100" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>from visit schedule</t>
         </is>
